--- a/测试文档/接口测试用例/接口测试用例 .xlsx
+++ b/测试文档/接口测试用例/接口测试用例 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7620" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="咨询，倾听，语音模块" sheetId="1" r:id="rId1"/>
@@ -1049,23 +1049,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1073,128 +1149,45 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1202,7 +1195,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1222,7 +1222,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,37 +1348,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,73 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,49 +1390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,21 +1413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1451,6 +1436,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,11 +1484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,148 +1518,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1687,57 +1687,62 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1997,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2005,7 +2010,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2037,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="58" spans="1:6">
+    <row r="3" ht="54" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="72.5" spans="1:6">
+    <row r="4" ht="67.5" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="71" spans="1:6">
+    <row r="5" ht="67.5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="72.5" spans="1:6">
+    <row r="6" ht="67.5" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="58" spans="1:6">
+    <row r="7" ht="54" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="57" spans="1:6">
+    <row r="8" ht="67.5" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2139,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="58" spans="1:6">
+    <row r="9" ht="67.5" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="85" spans="1:7">
+    <row r="10" ht="81" spans="1:7">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" ht="85" spans="1:7">
+    <row r="11" ht="81" spans="1:7">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" ht="85" spans="1:7">
+    <row r="12" ht="81" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" ht="29" spans="1:6">
+    <row r="13" ht="40.5" spans="1:6">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2240,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
@@ -2248,7 +2253,7 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2280,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="72.5" spans="1:6">
+    <row r="3" ht="67.5" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -2297,7 +2302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="113.5" spans="1:7">
+    <row r="4" ht="108" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" ht="113.5" spans="1:7">
+    <row r="5" ht="108" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -2337,7 +2342,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" ht="113.5" spans="1:7">
+    <row r="6" ht="108" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" ht="113.5" spans="1:7">
+    <row r="7" ht="108" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" ht="99.5" spans="1:7">
+    <row r="8" ht="94.5" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" ht="84.5" spans="1:7">
+    <row r="9" ht="81" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" ht="72.5" spans="1:6">
+    <row r="10" ht="81" spans="1:6">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="100" spans="1:7">
+    <row r="11" ht="94.5" spans="1:7">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" ht="100" spans="1:7">
+    <row r="12" ht="94.5" spans="1:7">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" ht="100" spans="1:7">
+    <row r="13" ht="94.5" spans="1:7">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" ht="87" spans="1:7">
+    <row r="14" ht="94.5" spans="1:7">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" ht="85" spans="1:7">
+    <row r="15" ht="81" spans="1:7">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" ht="72.5" spans="1:7">
+    <row r="16" ht="81" spans="1:7">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" ht="85" spans="1:7">
+    <row r="17" ht="81" spans="1:7">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" ht="72.5" spans="1:7">
+    <row r="18" ht="67.5" spans="1:7">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" ht="72.5" spans="1:6">
+    <row r="19" ht="67.5" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>73</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" ht="85" spans="1:7">
+    <row r="20" ht="81" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" ht="85" spans="1:7">
+    <row r="21" ht="81" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" ht="85" spans="1:7">
+    <row r="22" ht="81" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" ht="87" spans="1:7">
+    <row r="23" ht="81" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2700,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" ht="71" spans="1:7">
+    <row r="24" ht="67.5" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" ht="85" spans="1:7">
+    <row r="25" ht="81" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" ht="43.5" spans="1:6">
+    <row r="26" ht="40.5" spans="1:6">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="116" spans="1:6">
+    <row r="27" ht="135" spans="1:6">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" ht="130.5" spans="1:7">
+    <row r="28" ht="135" spans="1:7">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2791,7 +2796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" ht="116" spans="1:7">
+    <row r="29" ht="148.5" spans="1:7">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2811,7 +2816,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" ht="116" spans="1:7">
+    <row r="30" ht="135" spans="1:7">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" ht="130.5" spans="1:7">
+    <row r="31" ht="135" spans="1:7">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" ht="130.5" spans="1:7">
+    <row r="32" ht="135" spans="1:7">
       <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
@@ -2870,7 +2875,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" ht="116" spans="1:7">
+    <row r="33" ht="148.5" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -2889,7 +2894,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" ht="116" spans="1:7">
+    <row r="34" ht="135" spans="1:7">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" ht="87" spans="1:7">
+    <row r="35" ht="94.5" spans="1:7">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" ht="87" spans="1:7">
+    <row r="36" ht="108" spans="1:7">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" ht="87" spans="1:7">
+    <row r="37" ht="108" spans="1:7">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" ht="101.5" spans="1:7">
+    <row r="38" ht="108" spans="1:7">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" ht="58" spans="1:6">
+    <row r="39" ht="54" spans="1:6">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" ht="58" spans="1:7">
+    <row r="40" ht="54" spans="1:7">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" ht="72.5" spans="1:7">
+    <row r="41" ht="67.5" spans="1:7">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -3046,7 +3051,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" ht="71" spans="1:7">
+    <row r="42" ht="67.5" spans="1:7">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" ht="58" spans="1:6">
+    <row r="43" ht="54" spans="1:6">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" ht="72.5" spans="1:7">
+    <row r="44" ht="67.5" spans="1:7">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -3103,7 +3108,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" ht="71" spans="1:6">
+    <row r="45" ht="67.5" spans="1:6">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -3120,7 +3125,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" ht="57" spans="1:6">
+    <row r="46" ht="54" spans="1:6">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -3137,7 +3142,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" ht="57" spans="1:6">
+    <row r="47" ht="54" spans="1:6">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" ht="71" spans="1:6">
+    <row r="48" ht="67.5" spans="1:6">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3171,7 +3176,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" ht="87" spans="1:6">
+    <row r="49" ht="81" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -3189,7 +3194,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" ht="72" spans="1:6">
+    <row r="50" ht="67.5" spans="1:6">
       <c r="A50" s="3" t="s">
         <v>144</v>
       </c>
@@ -3272,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3280,7 +3285,7 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -3314,7 +3319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="58" spans="1:6">
+    <row r="3" ht="67.5" spans="1:6">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" ht="70.5" spans="1:6">
+    <row r="4" ht="67.5" spans="1:6">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" ht="114" spans="1:6">
+    <row r="5" ht="108" spans="1:6">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -3365,7 +3370,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" ht="87" spans="1:6">
+    <row r="6" ht="81" spans="1:6">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" ht="99.5" spans="1:6">
+    <row r="7" ht="108" spans="1:6">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -3399,7 +3404,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" ht="128" spans="1:6">
+    <row r="8" ht="121.5" spans="1:6">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" ht="114" spans="1:6">
+    <row r="9" ht="108" spans="1:6">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" ht="99.5" spans="1:6">
+    <row r="10" ht="94.5" spans="1:6">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" ht="114" spans="1:6">
+    <row r="11" ht="108" spans="1:6">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3467,7 +3472,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" ht="71" spans="1:6">
+    <row r="12" ht="67.5" spans="1:6">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" ht="58" spans="1:6">
+    <row r="13" ht="54" spans="1:6">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" ht="71" spans="1:6">
+    <row r="14" ht="67.5" spans="1:6">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" ht="85" spans="1:6">
+    <row r="15" ht="81" spans="1:6">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" ht="58" spans="1:6">
+    <row r="16" ht="54" spans="1:6">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -3552,7 +3557,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" ht="85" spans="1:6">
+    <row r="17" ht="81" spans="1:6">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" ht="85" spans="1:6">
+    <row r="18" ht="81" spans="1:6">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -3586,7 +3591,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" ht="72.5" spans="1:6">
+    <row r="19" ht="67.5" spans="1:6">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -3603,7 +3608,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" ht="72.5" spans="1:6">
+    <row r="20" ht="67.5" spans="1:6">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -3620,7 +3625,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" ht="72.5" spans="1:6">
+    <row r="21" ht="67.5" spans="1:6">
       <c r="A21" t="s">
         <v>189</v>
       </c>
@@ -3637,7 +3642,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" ht="72.5" spans="1:6">
+    <row r="22" ht="67.5" spans="1:6">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" ht="72.5" spans="1:6">
+    <row r="23" ht="67.5" spans="1:6">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -3671,7 +3676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" ht="72.5" spans="1:6">
+    <row r="24" ht="67.5" spans="1:6">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" ht="72.5" spans="1:6">
+    <row r="25" ht="67.5" spans="1:6">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -3705,7 +3710,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" ht="85.5" spans="1:6">
+    <row r="26" ht="81" spans="1:6">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" ht="72.5" spans="1:6">
+    <row r="27" ht="67.5" spans="1:6">
       <c r="A27" t="s">
         <v>201</v>
       </c>
@@ -3739,7 +3744,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" ht="85.5" spans="1:6">
+    <row r="28" ht="81" spans="1:6">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -3766,7 +3771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3774,7 +3779,7 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -3806,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="29" spans="1:6">
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="58" spans="1:6">
+    <row r="4" ht="54" spans="1:6">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" ht="99.5" spans="1:7">
+    <row r="5" ht="94.5" spans="1:7">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" ht="85" spans="1:7">
+    <row r="6" ht="81" spans="1:7">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" ht="85.5" spans="1:7">
+    <row r="7" ht="81" spans="1:7">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -3900,7 +3905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" ht="71" spans="1:6">
+    <row r="8" ht="67.5" spans="1:6">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -3917,7 +3922,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" ht="85.5" spans="1:6">
+    <row r="9" ht="81" spans="1:6">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" ht="43.5" spans="1:6">
+    <row r="10" ht="40.5" spans="1:6">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -3951,7 +3956,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" ht="85.5" spans="1:7">
+    <row r="11" ht="81" spans="1:7">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" ht="71.5" spans="1:7">
+    <row r="12" ht="81" spans="1:7">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -3991,7 +3996,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" ht="71.5" spans="1:7">
+    <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" ht="43.5" spans="1:6">
+    <row r="14" ht="40.5" spans="1:6">
       <c r="A14" t="s">
         <v>240</v>
       </c>
@@ -4028,7 +4033,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" ht="71" spans="1:6">
+    <row r="15" ht="67.5" spans="1:6">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -4045,7 +4050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="85" spans="1:7">
+    <row r="16" ht="81" spans="1:7">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -4065,7 +4070,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" ht="29" spans="1:6">
+    <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
         <v>247</v>
       </c>
